--- a/Example Excel/2020年四季度.xlsx
+++ b/Example Excel/2020年四季度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suoweihu/Documents/GitHub/Excel-Online-App/Example Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C6AF5E-EC3C-9D4A-8668-9904224DF8A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC7DFDE-3D4B-4944-A4A9-8CCF8ED7C9CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="3860" windowWidth="23940" windowHeight="10340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,27 +64,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -93,7 +78,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -103,14 +88,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -433,8 +415,8 @@
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -445,7 +427,9 @@
       <c r="A2" s="3">
         <v>733101</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -454,8 +438,8 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -466,7 +450,9 @@
       <c r="A3" s="3">
         <v>733121</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -475,8 +461,8 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -487,7 +473,9 @@
       <c r="A4" s="3">
         <v>733131</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -496,8 +484,8 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -508,7 +496,9 @@
       <c r="A5" s="3">
         <v>733141</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -517,8 +507,8 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -529,7 +519,9 @@
       <c r="A6" s="3">
         <v>733151</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -538,8 +530,8 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -547,16 +539,22 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="A7" s="3">
+        <v>733151</v>
+      </c>
+      <c r="B7" s="3">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -564,16 +562,22 @@
       <c r="Q7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="A8" s="3">
+        <v>733151</v>
+      </c>
+      <c r="B8" s="3">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -581,16 +585,22 @@
       <c r="Q8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="A9" s="3">
+        <v>733151</v>
+      </c>
+      <c r="B9" s="3">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -598,17 +608,45 @@
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="A10" s="3">
+        <v>733151</v>
+      </c>
+      <c r="B10" s="3">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="A11" s="3">
+        <v>733151</v>
+      </c>
+      <c r="B11" s="3">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -616,8 +654,18 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -625,23 +673,39 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
